--- a/1,4-Benzoquinone/Eb-prediction-BQ.xlsx
+++ b/1,4-Benzoquinone/Eb-prediction-BQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\1,4-Benzoquinone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D363BD7-8663-4F61-A32E-6B5CA1D8DBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A09DD-62BB-4E01-AF14-164691888774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="3180" windowWidth="18900" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Original_Molecule</t>
-  </si>
   <si>
     <t>Site1_ Overall skewness</t>
   </si>
@@ -109,6 +106,10 @@
   </si>
   <si>
     <t xml:space="preserve">Site4_ Polar surface area </t>
+  </si>
+  <si>
+    <t>Molecules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -475,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,85 +514,85 @@
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
